--- a/Program/DataBase.xlsx
+++ b/Program/DataBase.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,12 +836,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Frankie and Benny's</t>
+          <t>Caffe Nero Glasgow Union St</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=89956d0b5f22bce6</t>
+          <t>https://uk.indeed.com/viewjob?jk=3c30a07d77d3a479</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,18 +851,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Refer a friend scheme with generous bonuses for each successful referral.</t>
+          <t>As an Assistant Manager you will support in the running of the store, providing great customer service and the best standards of coffee and food.</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44790</v>
-      </c>
-      <c r="F11" t="n">
-        <v>27000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>27000</v>
-      </c>
+        <v>44721</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Glasgow</t>
@@ -870,19 +866,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>G33</t>
+          <t>G1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Greene King</t>
+          <t>BRGR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=9ca24025cd40b6b4</t>
+          <t>https://uk.indeed.com/viewjob?jk=ceb8df5a07ba8a1b</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -892,108 +888,116 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Competitive salary with generous bonus and pension contribution.</t>
+          <t>Day to day responsibility and accountability for the venue in the absence of the manager.</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44792</v>
+        <v>44721</v>
       </c>
       <c r="F12" t="n">
-        <v>25160</v>
+        <v>24000</v>
       </c>
       <c r="G12" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>Glasgow</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Subway</t>
+          <t>Frankie and Benny's</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=0e6095c2b85ef6c5</t>
+          <t>https://uk.indeed.com/viewjob?jk=89956d0b5f22bce6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Posted</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>View all Subway jobs - Bathgate jobs</t>
+          <t>Refer a friend scheme with generous bonuses for each successful referral.</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44792</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>44790</v>
+      </c>
+      <c r="F13" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>27000</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bathgate</t>
+          <t>Glasgow</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>H48</t>
+          <t>G33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nandos</t>
+          <t>Subway</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=e436861aec7e6027</t>
+          <t>https://uk.indeed.com/viewjob?jk=0e6095c2b85ef6c5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Posted</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>An Assistant Manager with previous management experience and bucket-loads of passion and energy to inspire, motivate, and engage your team.</t>
+          <t>View all Subway jobs - Bathgate jobs</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44799</v>
-      </c>
-      <c r="F14" t="n">
-        <v>27000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27000</v>
-      </c>
+        <v>44792</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Bathgate</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>H48</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hospo Ltd</t>
+          <t>Greene King</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=61183ed69de1164c</t>
+          <t>https://uk.indeed.com/viewjob?jk=9ca24025cd40b6b4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1003,21 +1007,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Handling customer complaints or concerns regarding service or drink quality in a courteous manner.</t>
+          <t>Competitive salary with generous bonus and pension contribution.</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44800</v>
+        <v>44792</v>
       </c>
       <c r="F15" t="n">
-        <v>28000</v>
+        <v>25160</v>
       </c>
       <c r="G15" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Greenock</t>
+          <t>Glasgow</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1025,12 +1029,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hospo Ltd</t>
+          <t>Domino's</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=e9e5cc46eba49088</t>
+          <t>https://uk.indeed.com/viewjob?jk=827e4b72fc5c31c5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1040,21 +1044,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Helping general manager with the day to day.</t>
+          <t>Assisting and deputising for the Store Manager, you will receive training and development in all areas of store operations, learning about the daily aspects of…</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44800</v>
+        <v>44798</v>
       </c>
       <c r="F16" t="n">
-        <v>30000</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>35000</v>
+        <v>11</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Greenock</t>
+          <t>Carluke</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1062,77 +1066,77 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C&amp;C Group</t>
+          <t>Nando’s Chickenland Limited</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=2c8dd70f8caa8462</t>
+          <t>https://uk.indeed.com/viewjob?jk=e436861aec7e6027</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Posted</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Greek food experience is preferred but not essential as full training will be provided.</t>
+          <t>An Assistant Manager with previous management experience and bucket-loads of passion and energy to inspire, motivate, and engage your team.</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44804</v>
+        <v>44799</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>27000</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>27000</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Glasgow</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>K1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Miller &amp; Carter</t>
+          <t>Hospo Ltd</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://uk.indeed.com/viewjob?jk=1522e0d407906305</t>
+          <t>https://uk.indeed.com/viewjob?jk=61183ed69de1164c</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Posted</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>You'll pull everything together to make sure our guests, and teams, have a great time.</t>
+          <t>Handling customer complaints or concerns regarding service or drink quality in a courteous manner.</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44804</v>
+        <v>44800</v>
       </c>
       <c r="F18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="G18" t="n">
         <v>30000</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Newton</t>
+          <t>Greenock</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1140,39 +1144,154 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Hospo Ltd</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://uk.indeed.com/viewjob?jk=e9e5cc46eba49088</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Helping general manager with the day to day.</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>35000</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Greenock</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C&amp;C Group</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://uk.indeed.com/viewjob?jk=2c8dd70f8caa8462</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Greek food experience is preferred but not essential as full training will be provided.</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Glasgow</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Miller &amp; Carter</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://uk.indeed.com/viewjob?jk=1522e0d407906305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>You'll pull everything together to make sure our guests, and teams, have a great time.</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Newton</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Greene King</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>https://uk.indeed.com/viewjob?jk=b9bb2aaf16474db3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Posted</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Competitive salary with generous bonus and pension contribution.</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E22" s="2" t="n">
         <v>44842</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F22" t="n">
         <v>25160</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G22" t="n">
         <v>27676</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Stirling</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
